--- a/PhpOffice/模板.xlsx
+++ b/PhpOffice/模板.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myenv\myphp_www\PHPTutorial\WWW\phpexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myenv\Apache24\htdocs\PhpOffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A83E901-BD67-4F59-AB79-A88A0C2C9519}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5DFC9-371F-4F6C-BAC1-36873394BA61}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="6810" xr2:uid="{6BB770A6-4BE1-473C-A86E-9116D589D5E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -376,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,9 +387,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -407,9 +404,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,50 +416,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -474,15 +456,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -858,50 +831,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE879DE-F50D-4979-9B8F-7B28AA761EF7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="6.125" customWidth="1"/>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.125" customWidth="1"/>
     <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="8.375" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="20" customWidth="1"/>
+    <col min="10" max="10" width="4.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.75" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.75" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -909,428 +882,428 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="49"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="14"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="5" t="s">
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="31" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32" t="s">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="30" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="37"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="5" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="5"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="19"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="19"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="19"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="19"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="28"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="29"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="29"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="11">
+      <c r="C18" s="5"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="9">
         <f>SUM(H8:H13)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="11">
+      <c r="N18" s="9">
         <f>SUM(N8:N13)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="5"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
     </row>
     <row r="20" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="7" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="54" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="15" t="s">
+      <c r="K20" s="45"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="34">
